--- a/Monk-manuscript/samplesize.xlsx
+++ b/Monk-manuscript/samplesize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melissa.monk\Documents\GitHub\habitat-indices-paper\Monk-manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB604C23-AB20-47BD-BDE4-46473C437132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7858F30-8151-440C-95AC-57BA8747D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{CDA393E2-9101-4DAA-BE28-D8C90CDAAD79}"/>
+    <workbookView xWindow="-16710" yWindow="12900" windowWidth="13755" windowHeight="13065" xr2:uid="{CDA393E2-9101-4DAA-BE28-D8C90CDAAD79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,35 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
-    <t xml:space="preserve"> Species            </t>
+    <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve"> Drift-level habitat-informed </t>
+    <t>Onboard observer</t>
   </si>
   <si>
-    <t xml:space="preserve"> Drift-level SM-filtered </t>
+    <t>CRFS private</t>
   </si>
   <si>
-    <t xml:space="preserve">  Trip-level </t>
+    <t>Total samples</t>
   </si>
   <si>
-    <t xml:space="preserve"> Black rockfish     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blue rockfish      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brown rockfish     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> China rockfish     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gopher rockfish    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vermilion rockfish </t>
+    <t>Samples with  vermilion</t>
   </si>
 </sst>
 </file>
@@ -406,15 +400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314FE0F-C842-484C-BC40-04EE121AB5CF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.89453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,94 +419,47 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.252</v>
-      </c>
-      <c r="D2">
-        <v>0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.83</v>
-      </c>
-      <c r="C3">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D3">
-        <v>0.871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="C5">
-        <v>0.121</v>
-      </c>
-      <c r="D5">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="C6">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D6">
-        <v>0.755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="C7">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.82099999999999995</v>
       </c>
     </row>
   </sheetData>
